--- a/GDP_current_2005.xlsx
+++ b/GDP_current_2005.xlsx
@@ -818,12 +818,12 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:CM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I44" sqref="I44"/>
       <selection pane="topRight" activeCell="I44" sqref="I44"/>
       <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:E17"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
